--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Ocean_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Sediment_Ocean_mass_flows.xlsx
@@ -539,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.942727792069425E-08</v>
+        <v>9.528878723240796E-09</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2.457282455939658E-09</v>
+        <v>5.938818946236801E-10</v>
       </c>
       <c r="F7">
-        <v>6.634662631037076E-10</v>
+        <v>1.603481115483936E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -639,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5.964752329592189E-10</v>
+        <v>7.617726528932581E-10</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.858748818903245E-11</v>
+        <v>2.373852157806095E-11</v>
       </c>
       <c r="F12">
-        <v>5.018621811038762E-12</v>
+        <v>6.409400826076458E-12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -659,16 +659,16 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.288154094816745E-10</v>
+        <v>1.644466729824091E-10</v>
       </c>
       <c r="D13">
-        <v>9.54664481760067E-12</v>
+        <v>1.218731504806904E-11</v>
       </c>
       <c r="E13">
-        <v>4.014173212904729E-12</v>
+        <v>5.12452223141207E-12</v>
       </c>
       <c r="F13">
-        <v>1.083826767484277E-12</v>
+        <v>1.383621002481259E-12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -679,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>6.591670929858866E-11</v>
+        <v>8.81093415823931E-11</v>
       </c>
       <c r="D14">
-        <v>1.954062526372465E-11</v>
+        <v>2.611950208703635E-11</v>
       </c>
       <c r="E14">
-        <v>2.054110527722735E-12</v>
+        <v>2.745682059389261E-12</v>
       </c>
       <c r="F14">
-        <v>5.546098424851385E-13</v>
+        <v>7.413341560351006E-13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -739,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.5186309305889176</v>
+        <v>0.662757391121933</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06464674986729922</v>
+        <v>0.08261194764822795</v>
       </c>
       <c r="F17">
-        <v>0.01745462246417079</v>
+        <v>0.02230522586502155</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -759,16 +759,16 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.1155062051898841</v>
+        <v>0.1469737584242817</v>
       </c>
       <c r="D18">
-        <v>0.0003424156575631517</v>
+        <v>0.000435700541392089</v>
       </c>
       <c r="E18">
-        <v>0.01439771582183174</v>
+        <v>0.01832011019304685</v>
       </c>
       <c r="F18">
-        <v>0.003887383271894568</v>
+        <v>0.004946429752122648</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -779,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.07525971537878175</v>
+        <v>0.100597921835844</v>
       </c>
       <c r="D19">
-        <v>0.0008924123761666979</v>
+        <v>0.001192866994129875</v>
       </c>
       <c r="E19">
-        <v>0.009381037088651036</v>
+        <v>0.01253941542342499</v>
       </c>
       <c r="F19">
-        <v>0.00253288001393578</v>
+        <v>0.003385642164324747</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4.254802663973761E-08</v>
+        <v>1.028310872941287E-08</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>6.007643855098273E-10</v>
+        <v>7.666735092058083E-10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>1.336897416478019E-10</v>
+        <v>1.700823802208533E-10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>8.806605493252121E-11</v>
+        <v>1.177158598848538E-10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.5999436810747414</v>
+        <v>0.7666424305967253</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.1336875137530902</v>
+        <v>0.1700795654137782</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.08806604485753529</v>
+        <v>0.1177158464177236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
